--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND1/cond1_loc8_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND1/cond1_loc8_processed.xlsx
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.005145999999999873</v>
+        <v>0.0001390000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001900000000001345</v>
+        <v>0.000122000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001379999999999715</v>
+        <v>0.0001869999999999927</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001878000000000046</v>
+        <v>0.01821700000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004868000000000094</v>
+        <v>0.0002650000000000152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.000176000000000176</v>
+        <v>0.0001100000000000267</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.007480999999999849</v>
+        <v>0.004975000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0001150000000000873</v>
+        <v>0.0001470000000000082</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.002029000000000281</v>
+        <v>0.000125000000000014</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0001220000000001775</v>
+        <v>0.02103900000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.499999999995623E-05</v>
+        <v>0.002139000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.006862000000000368</v>
+        <v>0.03023200000000004</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.000172000000000061</v>
+        <v>0.004087999999999981</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.175249</v>
+        <v>0.02921399999999996</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005062999999999818</v>
+        <v>0.6729590000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01303400000000021</v>
+        <v>0.04473400000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0001059999999997174</v>
+        <v>0.08960799999999991</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.800000000037556E-05</v>
+        <v>0.05603800000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.299999999967667E-05</v>
+        <v>0.08984900000000007</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.00585399999999936</v>
+        <v>0.08991199999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00433199999999978</v>
+        <v>0.04464500000000005</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0002330000000005938</v>
+        <v>0.009903999999999913</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.005935999999999275</v>
+        <v>0.04476400000000025</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.800000000011352E-05</v>
+        <v>0.04494100000000012</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.002021000000000051</v>
+        <v>0.04477300000000017</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.003328999999999915</v>
+        <v>0.04492300000000027</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.19999999995369E-05</v>
+        <v>0.04479800000000012</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.002914999999999779</v>
+        <v>0.04502500000000031</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.002067999999999515</v>
+        <v>0.04458199999999968</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.08417399999999997</v>
+        <v>0.04498300000000022</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.005047000000000246</v>
+        <v>0.04468400000000017</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.002047999999999384</v>
+        <v>0.04475700000000016</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6872219999999993</v>
+        <v>0.04461000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.05596500000000049</v>
+        <v>0.04474499999999981</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.04640000000000022</v>
+        <v>0.05608199999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0446049999999989</v>
+        <v>0.07569999999999988</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0604610000000001</v>
+        <v>0.04490499999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.05398399999999981</v>
+        <v>0.044794</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.07316699999999976</v>
+        <v>0.04495799999999983</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1276160000000015</v>
+        <v>0.0448000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.02803999999999895</v>
+        <v>0.04495400000000016</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.06738100000000102</v>
+        <v>0.01703199999999994</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0480400000000003</v>
+        <v>0.04479400000000044</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.05838600000000049</v>
+        <v>0.04490300000000058</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.06359699999999968</v>
+        <v>0.04497600000000013</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.07359399999999994</v>
+        <v>0.04497699999999938</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.01504100000000008</v>
+        <v>0.04444099999999995</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.003095999999999322</v>
+        <v>0.04488199999999942</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1870120000000011</v>
+        <v>0.04499099999999956</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.06500999999999912</v>
+        <v>0.08963799999999988</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1027839999999998</v>
+        <v>0.04498300000000022</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.06905300000000025</v>
+        <v>0.08977199999999996</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01903799999999833</v>
+        <v>0.04498499999999961</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.04600300000000068</v>
+        <v>0.08937099999999987</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.06100100000000097</v>
+        <v>0.04501199999999983</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.06762799999999913</v>
+        <v>0.04495000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0318379999999987</v>
+        <v>0.04464299999999977</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0110209999999995</v>
+        <v>0.04465400000000042</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.02002900000000096</v>
+        <v>0.04481199999999941</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1300340000000002</v>
+        <v>0.04496199999999995</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.05198399999999914</v>
+        <v>0.04499300000000073</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01902699999999946</v>
+        <v>0.0898140000000005</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.09120599999999968</v>
+        <v>0.04483100000000029</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.02699100000000065</v>
+        <v>0.04465299999999939</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.07961799999999997</v>
+        <v>0.04499300000000073</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.007015000000000882</v>
+        <v>0.004879999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.007187000000000054</v>
+        <v>0.04500799999999927</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.02098200000000006</v>
+        <v>0.04483699999999935</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.05560400000000065</v>
+        <v>0.0446200000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1021699999999992</v>
+        <v>0.04499800000000054</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.07319400000000087</v>
+        <v>0.04448900000000044</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0951909999999998</v>
+        <v>0.04475300000000004</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.02100300000000033</v>
+        <v>0.04494799999999977</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.115043</v>
+        <v>0.1230370000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.04562999999999917</v>
+        <v>0.09704800000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.09102799999999966</v>
+        <v>0.0448959999999996</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1170039999999997</v>
+        <v>0.04489100000000068</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.02202199999999976</v>
+        <v>0.04485600000000023</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1350059999999988</v>
+        <v>0.04496699999999976</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.01500699999999888</v>
+        <v>0.04473299999999902</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.05783499999999897</v>
+        <v>0.04503900000000094</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1166640000000001</v>
+        <v>0.04485199999999878</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.07282399999999889</v>
+        <v>0.04467599999999905</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.008015999999999579</v>
+        <v>0.04508200000000073</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.04601100000000002</v>
+        <v>0.04458300000000115</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.03404399999999974</v>
+        <v>0.04468599999999867</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01499499999999898</v>
+        <v>0.04505499999999962</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.007024999999998727</v>
+        <v>0.04491099999999904</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.05902599999999936</v>
+        <v>0.04470000000000063</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.05504599999999904</v>
+        <v>0.04506199999999971</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1433289999999996</v>
+        <v>0.0448700000000013</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.07184599999999897</v>
+        <v>0.04487799999999886</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.04488500000000073</v>
+        <v>0.04486400000000046</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.03406100000000123</v>
+        <v>0.1346749999999997</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.04397699999999816</v>
+        <v>0.04471299999999978</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.04487400000000008</v>
+        <v>0.04486999999999952</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.01202400000000026</v>
+        <v>0.04504999999999981</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1220220000000012</v>
+        <v>0.04513899999999893</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.08223500000000072</v>
+        <v>0.04471999999999987</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.07724300000000284</v>
+        <v>0.04488100000000017</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.04472699999999818</v>
+        <v>0.04471299999999978</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.02619999999999933</v>
+        <v>0.04490499999999997</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.04402100000000075</v>
+        <v>0.04390099999999997</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.06296800000000147</v>
+        <v>0.04488599999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1052229999999987</v>
+        <v>0.04499200000000059</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.06800699999999793</v>
+        <v>0.04471200000000053</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.02417999999999765</v>
+        <v>0.04489900000000091</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.04477999999999938</v>
+        <v>0.09008299999999991</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.06970100000000201</v>
+        <v>0.04474200000000117</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.03300499999999928</v>
+        <v>0.0450809999999997</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.02182699999999826</v>
+        <v>0.04488699999999923</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.05419499999999999</v>
+        <v>0.04489900000000091</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.08470000000000155</v>
+        <v>0.04462700000000019</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.03806200000000004</v>
+        <v>0.0449079999999995</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.02300699999999978</v>
+        <v>0.0448940000000011</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.07387999999999906</v>
+        <v>0.04510100000000072</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.02002599999999788</v>
+        <v>0.04493300000000033</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1270139999999991</v>
+        <v>0.04492500000000099</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.08616899999999816</v>
+        <v>0.0447330000000008</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.05699100000000001</v>
+        <v>0.04493100000000005</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0382039999999968</v>
+        <v>0.04508399999999924</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.09816899999999862</v>
+        <v>0.04510499999999951</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.07373399999999819</v>
+        <v>0.08992600000000017</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.008995999999999782</v>
+        <v>0.04475500000000032</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.07208400000000026</v>
+        <v>0.04492000000000118</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1057790000000018</v>
+        <v>0.04491900000000015</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.07790299999999917</v>
+        <v>0.04479599999999984</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.07401699999999778</v>
+        <v>0.04517300000000013</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.008055999999999841</v>
+        <v>0.04512300000000025</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.03020800000000179</v>
+        <v>0.08991600000000055</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.08622400000000141</v>
+        <v>0.04492100000000043</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.3352369999999993</v>
+        <v>0.04483899999999963</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.04500499999999974</v>
+        <v>0.04492800000000052</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.05478399999999795</v>
+        <v>0.04513200000000062</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0359829999999981</v>
+        <v>0.04493700000000089</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.06306299999999965</v>
+        <v>0.09011899999999962</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.02005500000000282</v>
+        <v>0.04505600000000065</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1180149999999998</v>
+        <v>0.0447469999999992</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1070099999999989</v>
+        <v>0.04515099999999883</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.04496199999999817</v>
+        <v>0.08974599999999988</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.00705300000000264</v>
+        <v>0.04481900000000039</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.05292900000000245</v>
+        <v>0.04521100000000011</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.03021599999999935</v>
+        <v>0.04498599999999975</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.05403000000000091</v>
+        <v>0.04518599999999928</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.008054000000001338</v>
+        <v>0.04519999999999946</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.01102599999999754</v>
+        <v>0.04504199999999869</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.04500499999999974</v>
+        <v>0.04502999999999879</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.04477299999999929</v>
+        <v>0.04524400000000028</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.02907899999999941</v>
+        <v>0.04486299999999943</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.05016999999999783</v>
+        <v>0.04504299999999972</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.02836699999999936</v>
+        <v>0.04530999999999885</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0280169999999984</v>
+        <v>0.04503099999999982</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.1880089999999974</v>
+        <v>0.04537000000000013</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.01102200000000053</v>
+        <v>0.04403199999999963</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1248309999999968</v>
+        <v>0.1352140000000013</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.09704400000000035</v>
+        <v>0.04523999999999972</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.02103400000000022</v>
+        <v>0.04508000000000045</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.09299299999999988</v>
+        <v>0.04518799999999956</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.08803500000000142</v>
+        <v>0.04483100000000206</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0110519999999994</v>
+        <v>0.04499899999999712</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.06822400000000073</v>
+        <v>0.04481800000000291</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.01799600000000012</v>
+        <v>0.04500499999999974</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.2659510000000012</v>
+        <v>0.08999000000000024</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.04196400000000011</v>
+        <v>0.0448580000000014</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.01800700000000077</v>
+        <v>0.04502899999999954</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.01510100000000136</v>
+        <v>0.04501499999999936</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.02386000000000266</v>
+        <v>0.04481900000000039</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.0454250000000016</v>
+        <v>0.04470899999999745</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.06805100000000053</v>
+        <v>0.04517799999999994</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.05502599999999802</v>
+        <v>0.0448360000000001</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1240339999999982</v>
+        <v>0.09020299999999892</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1040130000000019</v>
+        <v>0.09002100000000013</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1693079999999973</v>
+        <v>0.04522000000000048</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.04204000000000008</v>
+        <v>0.04521399999999787</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.06910900000000098</v>
+        <v>0.04532299999999978</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1072059999999979</v>
+        <v>0.04485499999999831</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0742699999999985</v>
+        <v>0.04512599999999978</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.08399999999999963</v>
+        <v>0.04499000000000208</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.06900599999999812</v>
+        <v>0.09018199999999865</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0448839999999997</v>
+        <v>0.04501499999999936</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1110140000000008</v>
+        <v>0.04493099999999828</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.05097200000000157</v>
+        <v>0.04496100000000069</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.04501199999999983</v>
+        <v>0.08989399999999748</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.02708700000000164</v>
+        <v>0.04523500000000169</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.08403200000000055</v>
+        <v>0.04420200000000207</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1330190000000009</v>
+        <v>0.04503599999999963</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.04798300000000211</v>
+        <v>0.04518500000000003</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.06714800000000309</v>
+        <v>0.04484000000000066</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.01202899999999829</v>
+        <v>0.09002200000000116</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.05622800000000083</v>
+        <v>0.04502899999999954</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.04511400000000165</v>
+        <v>0.04506000000000299</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.05000099999999819</v>
+        <v>0.04502800000000207</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.04602599999999768</v>
+        <v>0.04503799999999814</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1312009999999972</v>
+        <v>0.1350249999999988</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.07971699999999871</v>
+        <v>0.04501600000000039</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.09199599999999819</v>
+        <v>0.09002700000000274</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.06103200000000086</v>
+        <v>0.04517600000000144</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.04518900000000059</v>
+        <v>0.04484899999999925</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.07832800000000262</v>
+        <v>0.04500699999999824</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1611130000000003</v>
+        <v>0.04502600000000001</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.05116599999999849</v>
+        <v>0.04505800000000093</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.02802100000000252</v>
+        <v>0.04518699999999853</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.09993599999999958</v>
+        <v>0.04501300000000086</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.04818000000000211</v>
+        <v>0.04485599999999934</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0931759999999997</v>
+        <v>0.04502899999999954</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.07404100000000113</v>
+        <v>0.04480500000000021</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.04141999999999868</v>
+        <v>0.04502700000000104</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.04901300000000219</v>
+        <v>0.04505600000000243</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.2011900000000004</v>
+        <v>0.04523299999999963</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.02599500000000177</v>
+        <v>0.08986499999999964</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.07602800000000087</v>
+        <v>0.04506699999999952</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.04185999999999979</v>
+        <v>0.04504000000000019</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.06200800000000228</v>
+        <v>0.04506600000000205</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.05501500000000092</v>
+        <v>0.0452500000000029</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.1229979999999991</v>
+        <v>0.04521500000000245</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.02504100000000165</v>
+        <v>0.04505400000000037</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.05121499999999912</v>
+        <v>0.0453550000000007</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.05029799999999796</v>
+        <v>0.04504400000000075</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.07798900000000231</v>
+        <v>0.0902370000000019</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.005057000000000755</v>
+        <v>0.04506900000000158</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.06717499999999887</v>
+        <v>0.09009500000000159</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.07530899999999718</v>
+        <v>0.0452389999999987</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1120429999999999</v>
+        <v>0.04506199999999794</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1081429999999983</v>
+        <v>0.04544400000000337</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.254129000000006</v>
+        <v>0.04502099999999842</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.04320500000000038</v>
+        <v>0.09023200000000031</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.09907800000000577</v>
+        <v>0.08989099999999794</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.004038999999998794</v>
+        <v>0.0450770000000027</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.008966000000000918</v>
+        <v>0.04524699999999982</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.004021999999999082</v>
+        <v>0.04487199999999802</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.08918599999999799</v>
+        <v>0.04523499999999814</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.07018999999999664</v>
+        <v>0.04391700000000043</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.07317900000000321</v>
+        <v>0.04386399999999924</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1137969999999981</v>
+        <v>0.04406600000000083</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1052040000000005</v>
+        <v>0.04401199999999861</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.08723300000000478</v>
+        <v>0.0440649999999998</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.04402500000000487</v>
+        <v>0.04389600000000016</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.01003699999999697</v>
+        <v>0.1342549999999996</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.09002899999999414</v>
+        <v>0.08908300000000224</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.09603599999999801</v>
+        <v>0.04408000000000101</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.04700900000000274</v>
+        <v>0.08941000000000088</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.04517699999999536</v>
+        <v>0.08906400000000048</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.03002599999999944</v>
+        <v>0.04392400000000052</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.01904700000000048</v>
+        <v>0.04401299999999964</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.07401100000000582</v>
+        <v>0.04393199999999808</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.06217300000000137</v>
+        <v>0.1343530000000008</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.02001200000000125</v>
+        <v>0.04375899999999788</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.1061760000000049</v>
+        <v>0.04409500000000222</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1820269999999979</v>
+        <v>0.04415300000000144</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.0210259999999991</v>
+        <v>0.04409300000000016</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.04519799999999918</v>
+        <v>0.04412000000000305</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.01186899999999724</v>
+        <v>0.04426899999999989</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.06401000000000323</v>
+        <v>0.04391499999999837</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.1060429999999997</v>
+        <v>0.04431500000000099</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.008029999999997983</v>
+        <v>0.04422399999999982</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1122240000000048</v>
+        <v>0.04411400000000043</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2140759999999986</v>
+        <v>0.04384100000000046</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.0490260000000049</v>
+        <v>0.04426899999999989</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.05501200000000495</v>
+        <v>0.04399199999999936</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.02602500000000418</v>
+        <v>0.04430599999999885</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.1210049999999967</v>
+        <v>0.04406399999999877</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.02102399999999705</v>
+        <v>0.04428300000000007</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.003014999999997769</v>
+        <v>0.04393900000000173</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.06535699999999878</v>
+        <v>0.04400499999999852</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.007001000000002477</v>
+        <v>0.04413399999999967</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.02303200000000061</v>
+        <v>0.04431499999999744</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1382109999999983</v>
+        <v>0.04392999999999958</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.01701200000000114</v>
+        <v>0.04415099999999939</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.04432699999999556</v>
+        <v>0.04412899999999809</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,151 +2536,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1041880000000006</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>0.04419500000000198</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>0.01101200000000091</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>0.009841000000001543</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>0.04400499999999852</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>0.003056999999998311</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>0.08902300000000452</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278">
-        <v>0.04798800000000369</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279">
-        <v>0.08509999999999707</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>0.07708600000000132</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>0.003034999999997012</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>0.03901100000000213</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>0.07223099999999505</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>0.1182039999999986</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>0.07295700000000238</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>0.0520129999999952</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>0.03402400000000227</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>0.06203599999999909</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>0.04180800000000318</v>
+        <v>0.04404199999999747</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05952171874999998</v>
+        <v>51.68534814814819</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01030927835051546</v>
+        <v>0.7352941176470589</v>
       </c>
     </row>
   </sheetData>
